--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,10 +111,10 @@
     <t>Doppler ultrasonography of carotid arteries (procedure)</t>
   </si>
   <si>
-    <t>419949007</t>
-  </si>
-  <si>
-    <t>Computed tomography angiography of intracranial artery with contrast (procedure)</t>
+    <t>396205005</t>
+  </si>
+  <si>
+    <t>Computed tomography of brain without radiopaque contrast (procedure)</t>
   </si>
   <si>
     <t>1366357009</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines codes for different types of carotid artery imaging.</t>
+    <t>This ValueSet enumerates standardized codes (primarily SNOMED CT procedures) representing **carotid imaging modalities** used in stroke workflows.
+**Primary use-case**
+- Bind to `Procedure.code` when recording a carotid imaging study performed during the stroke episode.
+**Why it matters**
+- Supports comparable reporting across facilities (e.g., Doppler vs angiography vs CTA/MRA usage).
+- Reduces variability from local naming conventions and free-text.
+**What it does not represent**
+- Imaging results/findings (e.g., stenosis severity). Findings should be modeled separately (Observation/DiagnosticReport/ImagingStudy, depending on your architecture).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,12 +83,7 @@
   <si>
     <t>This ValueSet enumerates standardized codes (primarily SNOMED CT procedures) representing **carotid imaging modalities** used in stroke workflows.
 **Primary use-case**
-- Bind to `Procedure.code` when recording a carotid imaging study performed during the stroke episode.
-**Why it matters**
-- Supports comparable reporting across facilities (e.g., Doppler vs angiography vs CTA/MRA usage).
-- Reduces variability from local naming conventions and free-text.
-**What it does not represent**
-- Imaging results/findings (e.g., stenosis severity). Findings should be modeled separately (Observation/DiagnosticReport/ImagingStudy, depending on your architecture).</t>
+- Bind to `Procedure.code` when recording a carotid imaging study performed during the stroke episode.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-carotid-imaging-modality-vs.xlsx
+++ b/ValueSet-carotid-imaging-modality-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
